--- a/vendor/hscstudio/yii2-export/templates/opentbs/purchaseorder.xlsx
+++ b/vendor/hscstudio/yii2-export/templates/opentbs/purchaseorder.xlsx
@@ -38,9 +38,6 @@
     <t>Perusahaan</t>
   </si>
   <si>
-    <t>Lokasi</t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
@@ -62,19 +59,22 @@
     <t>[data.perusahaan;noerr]</t>
   </si>
   <si>
-    <t>[data.kota_kirim;noerr]</t>
-  </si>
-  <si>
     <t>[data.volume;noerr]</t>
   </si>
   <si>
-    <t>[data.pembayaran;noerr]</t>
-  </si>
-  <si>
     <t>[data.status;noerr]</t>
   </si>
   <si>
     <t>[data.tgl_lunas;noerr]</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>[data.sales;noerr]</t>
+  </si>
+  <si>
+    <t>[data.termin;noerr]</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,45 +530,45 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
